--- a/ExcelExpertsChallenge-Diarmuid.xlsx
+++ b/ExcelExpertsChallenge-Diarmuid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{E81D9676-1A6B-4AF7-8FA4-8C9815FB05C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEDBB7C-01B3-4B36-8A85-AE457EE15BBB}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{E81D9676-1A6B-4AF7-8FA4-8C9815FB05C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC73B020-E408-4364-8A0A-3871F5A6D09A}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="0" windowWidth="19665" windowHeight="15600" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,8 +45,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -55,16 +58,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>FROM:</t>
   </si>
@@ -241,13 +258,22 @@
   </si>
   <si>
     <t>Cleaned Data</t>
+  </si>
+  <si>
+    <t>Key Takeaways</t>
+  </si>
+  <si>
+    <t>Really interesting cross-check method</t>
+  </si>
+  <si>
+    <t>Cross-Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -329,6 +355,14 @@
       <color rgb="FF00B050"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,8 +469,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -732,92 +766,146 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>306544</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>105256</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>194250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142948</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D15738A-07F3-BE47-5203-BE3936EC3E85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C30DDE-63A0-3AAA-04DB-CED29A8DACCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1038225" y="6372225"/>
-          <a:ext cx="12498544" cy="3448531"/>
+          <a:off x="612321" y="6340929"/>
+          <a:ext cx="19802143" cy="4225090"/>
+          <a:chOff x="1040946" y="6321878"/>
+          <a:chExt cx="19802143" cy="4225090"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>8164</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>10553</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>46744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2070CD-05E5-DC44-88BB-D7A654CFCE94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13479236" y="6376307"/>
-          <a:ext cx="7363853" cy="3467580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D56829-75E0-7341-FA36-C25847E07547}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1040946" y="6321878"/>
+            <a:ext cx="19802143" cy="3526092"/>
+            <a:chOff x="1040946" y="6321878"/>
+            <a:chExt cx="19802143" cy="3526092"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Picture 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D15738A-07F3-BE47-5203-BE3936EC3E85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1040946" y="6370864"/>
+              <a:ext cx="12478134" cy="3477106"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Picture 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2070CD-05E5-DC44-88BB-D7A654CFCE94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13479236" y="6321878"/>
+              <a:ext cx="7363853" cy="3467580"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2549A649-2619-F448-F7DC-3FCB3F4D86BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12518571" y="10042073"/>
+            <a:ext cx="8316486" cy="504895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -870,6 +958,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,7 +1043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1038,6 +1130,64 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,10 +1393,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1427,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1285,9 +1438,6 @@
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1296,6 +1446,12 @@
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1306,61 +1462,61 @@
       <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1866,61 +2022,61 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2904,14 +3060,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="e" cm="1" vm="1">
+        <f t="array" ref="C35">_xlfn._xlws.FILTER(C8:C18,ISERROR(_xlfn.XMATCH(C8:C18,$C$22:$T$22))*(C8:C18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="e" cm="1" vm="1">
+        <f t="array" ref="F35">_xlfn._xlws.FILTER(F8:F18,ISERROR(_xlfn.XMATCH(F8:F18,$C$22:$T$22))*(F8:F18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="e" cm="1" vm="1">
+        <f t="array" ref="I35">_xlfn._xlws.FILTER(I8:I18,ISERROR(_xlfn.XMATCH(I8:I18,$C$22:$T$22))*(I8:I18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" t="e" cm="1" vm="1">
+        <f t="array" ref="L35">_xlfn._xlws.FILTER(L8:L18,ISERROR(_xlfn.XMATCH(L8:L18,$C$22:$T$22))*(L8:L18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O35" t="e" cm="1" vm="1">
+        <f t="array" ref="O35">_xlfn._xlws.FILTER(O8:O18,ISERROR(_xlfn.XMATCH(O8:O18,$C$22:$T$22))*(O8:O18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" t="e" cm="1" vm="1">
+        <f t="array" ref="R35">_xlfn._xlws.FILTER(R8:R18,ISERROR(_xlfn.XMATCH(R8:R18,$C$22:$T$22))*(R8:R18&lt;&gt;""))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BEB6360A-193C-4B7E-900A-BE3E2E028CE8}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{BEB6360A-193C-4B7E-900A-BE3E2E028CE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3092,19 +3277,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -3112,11 +3293,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -3124,19 +3304,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -3144,11 +3320,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -3156,19 +3331,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -3176,11 +3347,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -3188,13 +3358,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>

--- a/ExcelExpertsChallenge-Diarmuid.xlsx
+++ b/ExcelExpertsChallenge-Diarmuid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{E81D9676-1A6B-4AF7-8FA4-8C9815FB05C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC73B020-E408-4364-8A0A-3871F5A6D09A}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{E81D9676-1A6B-4AF7-8FA4-8C9815FB05C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89B10062-365C-4F6D-B266-913E7EE14A37}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="7140" yWindow="45" windowWidth="21600" windowHeight="11385" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>FROM:</t>
   </si>
@@ -267,6 +267,27 @@
   </si>
   <si>
     <t>Cross-Check</t>
+  </si>
+  <si>
+    <t>Masterful use of wraprows</t>
+  </si>
+  <si>
+    <t>Questions to Ask When Analyzing Data</t>
+  </si>
+  <si>
+    <t>HSTACK to fill in multiple adjacent cells</t>
+  </si>
+  <si>
+    <t>Is this one time or will it repeat?</t>
+  </si>
+  <si>
+    <t>Repeats in the data?</t>
+  </si>
+  <si>
+    <t>Will I have to explain it to anyone?</t>
+  </si>
+  <si>
+    <t>If there are repeats, how should the repeats be handled? In this case, the repeats are handled by taking the hightest score.</t>
   </si>
 </sst>
 </file>
@@ -459,7 +480,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -471,6 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -908,6 +930,50 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>832380</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F3494A-8B8C-49C9-75B2-CD27D3DA09E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="10423071"/>
+          <a:ext cx="5540452" cy="1959429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -958,10 +1024,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,7 +1105,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1395,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1430,6 +1492,9 @@
       <c r="D1" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1452,10 +1517,30 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
